--- a/jpcore-r4/feature/swg2-fixwarning/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/feature/swg2-fixwarning/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -716,7 +716,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_DiagnosticReportCategory_CS</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Coding.system</t>
